--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111920.xlsx_with_dialog_acts.xlsx
@@ -1483,12 +1483,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3163,12 +3163,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3457,12 +3457,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4885,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6103,12 +6103,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6775,12 +6775,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6859,12 +6859,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7447,12 +7447,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7573,12 +7573,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8287,12 +8287,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8413,12 +8413,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8875,12 +8875,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9379,12 +9379,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9589,12 +9589,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9799,12 +9799,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10009,12 +10009,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10177,12 +10177,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10513,12 +10513,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10723,12 +10723,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10765,12 +10765,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10933,12 +10933,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11227,12 +11227,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11437,12 +11437,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11941,12 +11941,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12235,12 +12235,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12697,12 +12697,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12949,12 +12949,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13369,12 +13369,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13537,12 +13537,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14167,12 +14167,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15217,12 +15217,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15259,12 +15259,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15797,12 +15797,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15917,12 +15917,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16837,12 +16837,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17597,12 +17597,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17637,12 +17637,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18037,12 +18037,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19157,12 +19157,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19237,12 +19237,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19597,12 +19597,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19997,12 +19997,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20437,12 +20437,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20517,12 +20517,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20557,12 +20557,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20677,12 +20677,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20717,12 +20717,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20757,12 +20757,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21117,12 +21117,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21277,12 +21277,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21597,12 +21597,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21717,12 +21717,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21757,12 +21757,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22637,12 +22637,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22717,12 +22717,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22997,12 +22997,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23077,12 +23077,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23117,12 +23117,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23197,12 +23197,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23357,12 +23357,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23397,12 +23397,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23517,12 +23517,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23557,12 +23557,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23877,12 +23877,12 @@
       <c r="H568" t="inlineStr"/>
       <c r="I568" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24117,12 +24117,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24477,12 +24477,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24757,12 +24757,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24915,12 +24915,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25395,12 +25395,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25435,12 +25435,12 @@
       <c r="H607" t="inlineStr"/>
       <c r="I607" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25475,12 +25475,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26035,12 +26035,12 @@
       <c r="H622" t="inlineStr"/>
       <c r="I622" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27275,12 +27275,12 @@
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27515,12 +27515,12 @@
       <c r="H659" t="inlineStr"/>
       <c r="I659" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27875,12 +27875,12 @@
       <c r="H668" t="inlineStr"/>
       <c r="I668" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27915,12 +27915,12 @@
       <c r="H669" t="inlineStr"/>
       <c r="I669" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27955,12 +27955,12 @@
       <c r="H670" t="inlineStr"/>
       <c r="I670" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28315,12 +28315,12 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28795,12 +28795,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28995,12 +28995,12 @@
       <c r="H696" t="inlineStr"/>
       <c r="I696" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29195,12 +29195,12 @@
       <c r="H701" t="inlineStr"/>
       <c r="I701" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29475,12 +29475,12 @@
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29635,12 +29635,12 @@
       <c r="H712" t="inlineStr"/>
       <c r="I712" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29675,12 +29675,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29715,12 +29715,12 @@
       <c r="H714" t="inlineStr"/>
       <c r="I714" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29795,12 +29795,12 @@
       <c r="H716" t="inlineStr"/>
       <c r="I716" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29875,12 +29875,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29915,12 +29915,12 @@
       <c r="H719" t="inlineStr"/>
       <c r="I719" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29995,12 +29995,12 @@
       <c r="H721" t="inlineStr"/>
       <c r="I721" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
